--- a/trunk/DOCS/Test Cases/TC07- Alert.xlsx
+++ b/trunk/DOCS/Test Cases/TC07- Alert.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>Intput Type</t>
   </si>
@@ -60,55 +60,74 @@
     <t>Explanation:</t>
   </si>
   <si>
-    <t>TC23.01</t>
-  </si>
-  <si>
-    <t>TC23.02</t>
-  </si>
-  <si>
-    <t>Selection of Alert Message</t>
-  </si>
-  <si>
-    <t>&lt;selected&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Not selected&gt;</t>
-  </si>
-  <si>
-    <t>Action on page</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>Cancel</t>
-  </si>
-  <si>
-    <t>clicked on alert messge</t>
-  </si>
-  <si>
-    <t>Not clicked on Ok button</t>
-  </si>
-  <si>
-    <t>O1:OK</t>
-  </si>
-  <si>
-    <t>O1:&lt;Selected&gt;</t>
-  </si>
-  <si>
-    <t>Successfully retreived info</t>
-  </si>
-  <si>
-    <t>Not display the information</t>
-  </si>
-  <si>
-    <t>O2:&lt;Not selected&gt;</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Testcase ID: First two numbers is the use case number, second two numbers are remaining test case number.</t>
+  </si>
+  <si>
+    <t>Words in profile</t>
+  </si>
+  <si>
+    <t>Alert Message</t>
+  </si>
+  <si>
+    <t>Volunteer List</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>Not empty</t>
+  </si>
+  <si>
+    <t>Not Empty</t>
+  </si>
+  <si>
+    <t>0 selected</t>
+  </si>
+  <si>
+    <t>0 &lt; selected</t>
+  </si>
+  <si>
+    <t>All inputs have valid entries</t>
+  </si>
+  <si>
+    <t>O1</t>
+  </si>
+  <si>
+    <t>No allert message</t>
+  </si>
+  <si>
+    <t>O3</t>
+  </si>
+  <si>
+    <t>Invalid input message</t>
+  </si>
+  <si>
+    <t>TC07.01</t>
+  </si>
+  <si>
+    <t>TC07.02</t>
+  </si>
+  <si>
+    <t>TC07.03</t>
+  </si>
+  <si>
+    <t>TC07.04</t>
+  </si>
+  <si>
+    <t>No volunteer selected</t>
+  </si>
+  <si>
+    <t>O4</t>
+  </si>
+  <si>
+    <t>No volunteer searched</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>Alert will be shown on mobile
+Succsessfull message is shown</t>
   </si>
 </sst>
 </file>
@@ -261,14 +280,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -289,6 +307,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,13 +612,17 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="9" width="17.5703125" customWidth="1"/>
+    <col min="2" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="9" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1">
@@ -627,224 +656,245 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="D2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="D3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="F3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="4"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="D4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="4"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="4"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="4"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="4"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="4"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="4"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="4"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="4"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="4"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4"/>
@@ -869,10 +919,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -881,82 +931,128 @@
     <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" s="14" customFormat="1" ht="33.75" customHeight="1" thickTop="1">
+      <c r="A4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="14" customFormat="1">
+      <c r="A5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="14" customFormat="1">
+      <c r="A6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickTop="1">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="B6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="14" customFormat="1">
+      <c r="A7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>27</v>
       </c>
     </row>
@@ -964,11 +1060,12 @@
   <mergeCells count="5">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/trunk/DOCS/Test Cases/TC07- Alert.xlsx
+++ b/trunk/DOCS/Test Cases/TC07- Alert.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t>Intput Type</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>O1</t>
-  </si>
-  <si>
-    <t>No allert message</t>
   </si>
   <si>
     <t>O3</t>
@@ -128,6 +125,18 @@
   <si>
     <t>Alert will be shown on mobile
 Succsessfull message is shown</t>
+  </si>
+  <si>
+    <t>TC07.05</t>
+  </si>
+  <si>
+    <t>No alert message</t>
+  </si>
+  <si>
+    <t>view alert</t>
+  </si>
+  <si>
+    <t>all allerts will be listed sorted by date and time they're sent</t>
   </si>
 </sst>
 </file>
@@ -293,6 +302,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -307,13 +323,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -919,10 +928,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -939,121 +948,132 @@
       <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="10" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="13" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" s="14" customFormat="1" ht="33.75" customHeight="1" thickTop="1">
-      <c r="A4" s="14" t="s">
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" s="9" customFormat="1" ht="33.75" customHeight="1" thickTop="1">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="9" customFormat="1">
+      <c r="A5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="15" t="s">
+      <c r="B5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="9" customFormat="1">
+      <c r="A6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="9" customFormat="1">
+      <c r="A7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" s="14" customFormat="1">
-      <c r="A5" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="14" customFormat="1">
-      <c r="A6" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="14" customFormat="1">
-      <c r="A7" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>27</v>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
